--- a/scraper/top_remaining_spreadsheets_states/top_remaining_MO.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_MO.xlsx
@@ -44,7 +44,7 @@
     <t>TRIPLE PAYOUT</t>
   </si>
   <si>
-    <t>2019-03-07</t>
+    <t>2019-03-12</t>
   </si>
   <si>
     <t>TRIPLE IT!</t>
@@ -65,6 +65,9 @@
     <t>5X LUCKY</t>
   </si>
   <si>
+    <t>LOOSE CHANGE</t>
+  </si>
+  <si>
     <t>MISTLE DOUGH</t>
   </si>
   <si>
@@ -74,21 +77,18 @@
     <t>CRAZY 7s</t>
   </si>
   <si>
-    <t>LOOSE CHANGE</t>
-  </si>
-  <si>
     <t>$2.00 Games</t>
   </si>
   <si>
     <t>PAYDAY MULTIPLIER</t>
   </si>
   <si>
+    <t>SAPPHIRE 7S</t>
+  </si>
+  <si>
     <t>$100 IN A FLASH</t>
   </si>
   <si>
-    <t>SAPPHIRE 7S</t>
-  </si>
-  <si>
     <t>10X LUCKY</t>
   </si>
   <si>
@@ -119,12 +119,12 @@
     <t>24K</t>
   </si>
   <si>
+    <t>10X THE MONEY</t>
+  </si>
+  <si>
     <t>WIN ALL!</t>
   </si>
   <si>
-    <t>10X THE MONEY</t>
-  </si>
-  <si>
     <t>$3.00 Games</t>
   </si>
   <si>
@@ -140,12 +140,12 @@
     <t>GOLD RUSH</t>
   </si>
   <si>
+    <t>DIAMOND BINGO</t>
+  </si>
+  <si>
     <t>BLOCK-O</t>
   </si>
   <si>
-    <t>DIAMOND BINGO</t>
-  </si>
-  <si>
     <t>DAILY CROSSWORD</t>
   </si>
   <si>
@@ -179,30 +179,30 @@
     <t>BIG CASH RICHES</t>
   </si>
   <si>
+    <t>MONEY CLIP</t>
+  </si>
+  <si>
+    <t>$2,500 A WEEK FOR LIFE</t>
+  </si>
+  <si>
+    <t>NATIONAL LAMPOONS CHRISTMAS VACATION (TM)</t>
+  </si>
+  <si>
+    <t>$100,000 CASINO CASH</t>
+  </si>
+  <si>
+    <t>JUMBO CASH</t>
+  </si>
+  <si>
+    <t>20X LUCKY</t>
+  </si>
+  <si>
     <t>I LOVE LUCY</t>
   </si>
   <si>
-    <t>$2,500 A WEEK FOR LIFE</t>
-  </si>
-  <si>
-    <t>MONEY CLIP</t>
-  </si>
-  <si>
-    <t>NATIONAL LAMPOONS CHRISTMAS VACATION (TM)</t>
-  </si>
-  <si>
     <t>TRIPLE BONUS CROSSWORD</t>
   </si>
   <si>
-    <t>JUMBO CASH</t>
-  </si>
-  <si>
-    <t>$100,000 CASINO CASH</t>
-  </si>
-  <si>
-    <t>20X LUCKY</t>
-  </si>
-  <si>
     <t>FULL OF $500S</t>
   </si>
   <si>
@@ -212,10 +212,10 @@
     <t>BIG MONEY CROSSWORD</t>
   </si>
   <si>
+    <t>CASH CRAZE</t>
+  </si>
+  <si>
     <t>DOUBLE DIAMOND</t>
-  </si>
-  <si>
-    <t>CASH CRAZE</t>
   </si>
   <si>
     <t>FAT WALLET</t>
@@ -814,10 +814,10 @@
         <v>16</v>
       </c>
       <c r="D9">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -834,10 +834,10 @@
         <v>17</v>
       </c>
       <c r="D10">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E10">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -854,10 +854,10 @@
         <v>18</v>
       </c>
       <c r="D11">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="E11">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -874,10 +874,10 @@
         <v>19</v>
       </c>
       <c r="D12">
-        <v>237</v>
+        <v>181</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -914,10 +914,10 @@
         <v>22</v>
       </c>
       <c r="D14">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -934,10 +934,10 @@
         <v>23</v>
       </c>
       <c r="D15">
-        <v>236</v>
+        <v>185</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
@@ -1154,7 +1154,7 @@
         <v>34</v>
       </c>
       <c r="D26">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1174,7 +1174,7 @@
         <v>35</v>
       </c>
       <c r="D27">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>41</v>
       </c>
       <c r="D33">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="E33">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -1314,10 +1314,10 @@
         <v>42</v>
       </c>
       <c r="D34">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -1534,7 +1534,7 @@
         <v>54</v>
       </c>
       <c r="D45">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E45">
         <v>3</v>
@@ -1574,10 +1574,10 @@
         <v>56</v>
       </c>
       <c r="D47">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F47" t="s">
         <v>9</v>
@@ -1594,10 +1594,10 @@
         <v>57</v>
       </c>
       <c r="D48">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -1614,10 +1614,10 @@
         <v>58</v>
       </c>
       <c r="D49">
-        <v>246</v>
+        <v>161</v>
       </c>
       <c r="E49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -1634,10 +1634,10 @@
         <v>59</v>
       </c>
       <c r="D50">
-        <v>161</v>
+        <v>228</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F50" t="s">
         <v>9</v>
@@ -1654,10 +1654,10 @@
         <v>60</v>
       </c>
       <c r="D51">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
@@ -1674,7 +1674,7 @@
         <v>61</v>
       </c>
       <c r="D52">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="E52">
         <v>4</v>
@@ -1754,7 +1754,7 @@
         <v>65</v>
       </c>
       <c r="D56">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>66</v>
       </c>
       <c r="D57">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         <v>196</v>
       </c>
       <c r="E67">
-        <v>19340</v>
+        <v>17844</v>
       </c>
       <c r="F67" t="s">
         <v>9</v>

--- a/scraper/top_remaining_spreadsheets_states/top_remaining_MO.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_MO.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
   <si>
     <t>STATE</t>
   </si>
@@ -44,7 +44,7 @@
     <t>TRIPLE PAYOUT</t>
   </si>
   <si>
-    <t>2019-03-12</t>
+    <t>2019-04-11</t>
   </si>
   <si>
     <t>TRIPLE IT!</t>
@@ -53,30 +53,33 @@
     <t>5X THE BUCKS</t>
   </si>
   <si>
+    <t>MONEY TRIPLER</t>
+  </si>
+  <si>
+    <t>5X LUCKY</t>
+  </si>
+  <si>
     <t>DOUBLE DOUBLER</t>
   </si>
   <si>
     <t>7-11-21</t>
   </si>
   <si>
+    <t>LOOSE CHANGE</t>
+  </si>
+  <si>
+    <t>MISTLE DOUGH</t>
+  </si>
+  <si>
+    <t>ELECTRIC 8S</t>
+  </si>
+  <si>
+    <t>CRAZY 7s</t>
+  </si>
+  <si>
     <t>FAST $50</t>
   </si>
   <si>
-    <t>5X LUCKY</t>
-  </si>
-  <si>
-    <t>LOOSE CHANGE</t>
-  </si>
-  <si>
-    <t>MISTLE DOUGH</t>
-  </si>
-  <si>
-    <t>ELECTRIC 8S</t>
-  </si>
-  <si>
-    <t>CRAZY 7s</t>
-  </si>
-  <si>
     <t>$2.00 Games</t>
   </si>
   <si>
@@ -92,36 +95,30 @@
     <t>10X LUCKY</t>
   </si>
   <si>
+    <t>LUCKY</t>
+  </si>
+  <si>
     <t>MERRY MONEY</t>
   </si>
   <si>
-    <t>LUCKY</t>
+    <t>TRIPLE DOLLAR$</t>
   </si>
   <si>
     <t>DOUBLE MATCH</t>
   </si>
   <si>
-    <t>TRIPLE DOLLAR$</t>
-  </si>
-  <si>
     <t>QUICK $100S</t>
   </si>
   <si>
     <t>GOLD 7S</t>
   </si>
   <si>
-    <t>FIND $100</t>
-  </si>
-  <si>
     <t>$25,000 MULTIPLIER</t>
   </si>
   <si>
     <t>24K</t>
   </si>
   <si>
-    <t>10X THE MONEY</t>
-  </si>
-  <si>
     <t>WIN ALL!</t>
   </si>
   <si>
@@ -131,22 +128,22 @@
     <t>Peppermint Payout</t>
   </si>
   <si>
+    <t>DAILY CROSSWORD</t>
+  </si>
+  <si>
     <t>MONEY MANIA</t>
   </si>
   <si>
-    <t>CROSSWORD MULTIPLIER</t>
+    <t>DIAMOND BINGO</t>
   </si>
   <si>
     <t>GOLD RUSH</t>
   </si>
   <si>
-    <t>DIAMOND BINGO</t>
-  </si>
-  <si>
     <t>BLOCK-O</t>
   </si>
   <si>
-    <t>DAILY CROSSWORD</t>
+    <t>10X CROSSWORD</t>
   </si>
   <si>
     <t>RED HOT 7S</t>
@@ -158,9 +155,6 @@
     <t>THE VOICE</t>
   </si>
   <si>
-    <t>TRIPLE CASH CROSSWORD</t>
-  </si>
-  <si>
     <t>HIGH ROLLER</t>
   </si>
   <si>
@@ -170,60 +164,60 @@
     <t>BIG MONEY</t>
   </si>
   <si>
+    <t>20X THE MONEY</t>
+  </si>
+  <si>
+    <t>$2,500 A WEEK FOR LIFE</t>
+  </si>
+  <si>
     <t>FIREBALL 7S</t>
   </si>
   <si>
-    <t>20X THE MONEY</t>
+    <t>NATIONAL LAMPOONS CHRISTMAS VACATION (TM)</t>
+  </si>
+  <si>
+    <t>$100,000 CASINO CASH</t>
+  </si>
+  <si>
+    <t>TRIPLE BONUS CROSSWORD</t>
+  </si>
+  <si>
+    <t>JUMBO CASH</t>
+  </si>
+  <si>
+    <t>$100,000 TAXES PAID</t>
+  </si>
+  <si>
+    <t>I LOVE LUCY</t>
   </si>
   <si>
     <t>BIG CASH RICHES</t>
   </si>
   <si>
+    <t>20X LUCKY</t>
+  </si>
+  <si>
     <t>MONEY CLIP</t>
   </si>
   <si>
-    <t>$2,500 A WEEK FOR LIFE</t>
-  </si>
-  <si>
-    <t>NATIONAL LAMPOONS CHRISTMAS VACATION (TM)</t>
-  </si>
-  <si>
-    <t>$100,000 CASINO CASH</t>
-  </si>
-  <si>
-    <t>JUMBO CASH</t>
-  </si>
-  <si>
-    <t>20X LUCKY</t>
-  </si>
-  <si>
-    <t>I LOVE LUCY</t>
-  </si>
-  <si>
-    <t>TRIPLE BONUS CROSSWORD</t>
+    <t>BIG MONEY CROSSWORD</t>
+  </si>
+  <si>
+    <t>CASH CRAZE</t>
+  </si>
+  <si>
+    <t>DOUBLE DIAMOND</t>
+  </si>
+  <si>
+    <t>FAT WALLET</t>
+  </si>
+  <si>
+    <t>$100,000 MONEY VAULT MULTIPLIER</t>
   </si>
   <si>
     <t>FULL OF $500S</t>
   </si>
   <si>
-    <t>BLACK ICE</t>
-  </si>
-  <si>
-    <t>BIG MONEY CROSSWORD</t>
-  </si>
-  <si>
-    <t>CASH CRAZE</t>
-  </si>
-  <si>
-    <t>DOUBLE DIAMOND</t>
-  </si>
-  <si>
-    <t>FAT WALLET</t>
-  </si>
-  <si>
-    <t>$100,000 MONEY VAULT MULTIPLIER</t>
-  </si>
-  <si>
     <t>$500 IN A FLASH</t>
   </si>
   <si>
@@ -248,15 +242,18 @@
     <t>$1,000,000 FORTUNE</t>
   </si>
   <si>
+    <t>$50 &amp; $100</t>
+  </si>
+  <si>
     <t>$50 &amp; $100 BLOWOUT</t>
   </si>
   <si>
+    <t>50X LUCKY</t>
+  </si>
+  <si>
     <t>$1,000 IN A FLASH</t>
   </si>
   <si>
-    <t>50X LUCKY</t>
-  </si>
-  <si>
     <t>$20.00 Games</t>
   </si>
   <si>
@@ -272,16 +269,16 @@
     <t>$4,000,000 PAYOUT</t>
   </si>
   <si>
+    <t>100X THE CASH</t>
+  </si>
+  <si>
     <t>MONEY TREE</t>
   </si>
   <si>
+    <t>$5,000,000 BANKROLL</t>
+  </si>
+  <si>
     <t>100 TIMES LUCKY</t>
-  </si>
-  <si>
-    <t>100X THE CASH</t>
-  </si>
-  <si>
-    <t>$5,000,000 BANKROLL</t>
   </si>
   <si>
     <t>$5,000,000 BIG MONEY</t>
@@ -635,7 +632,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -734,10 +731,10 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>201</v>
+        <v>240</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -754,10 +751,10 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -774,10 +771,10 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -794,10 +791,10 @@
         <v>15</v>
       </c>
       <c r="D8">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -817,7 +814,7 @@
         <v>237</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -857,7 +854,7 @@
         <v>226</v>
       </c>
       <c r="E11">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -888,16 +885,16 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
       <c r="D13">
-        <v>165</v>
+        <v>213</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -908,16 +905,16 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14">
-        <v>236</v>
+        <v>165</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -928,16 +925,16 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
@@ -948,16 +945,16 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -968,16 +965,16 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -988,7 +985,7 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
@@ -1008,13 +1005,13 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
       </c>
       <c r="D19">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1028,7 +1025,7 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -1048,16 +1045,16 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
       </c>
       <c r="D21">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -1068,16 +1065,16 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
         <v>30</v>
       </c>
       <c r="D22">
-        <v>162</v>
+        <v>234</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -1088,16 +1085,16 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
       </c>
       <c r="D23">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -1108,7 +1105,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
@@ -1128,7 +1125,7 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
         <v>33</v>
@@ -1148,13 +1145,13 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
         <v>34</v>
       </c>
       <c r="D26">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1168,13 +1165,13 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" t="s">
-        <v>35</v>
+        <v>21</v>
+      </c>
+      <c r="C27">
+        <v>777</v>
       </c>
       <c r="D27">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1188,16 +1185,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28">
-        <v>777</v>
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
       </c>
       <c r="D28">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1208,16 +1205,16 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
       </c>
       <c r="D29">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -1228,7 +1225,7 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
         <v>38</v>
@@ -1248,16 +1245,16 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
         <v>39</v>
       </c>
       <c r="D31">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
@@ -1268,7 +1265,7 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
         <v>40</v>
@@ -1288,16 +1285,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
         <v>41</v>
       </c>
       <c r="D33">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -1308,16 +1305,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
         <v>42</v>
       </c>
       <c r="D34">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="E34">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -1328,13 +1325,13 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
         <v>43</v>
       </c>
       <c r="D35">
-        <v>215</v>
+        <v>97</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -1348,13 +1345,13 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D36">
-        <v>97</v>
+        <v>212</v>
       </c>
       <c r="E36">
         <v>2</v>
@@ -1368,16 +1365,16 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
         <v>46</v>
       </c>
       <c r="D37">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
@@ -1388,13 +1385,13 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
         <v>47</v>
       </c>
       <c r="D38">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1408,16 +1405,16 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
         <v>48</v>
       </c>
       <c r="D39">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F39" t="s">
         <v>9</v>
@@ -1428,16 +1425,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
         <v>49</v>
       </c>
       <c r="D40">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
@@ -1448,16 +1445,16 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
         <v>50</v>
       </c>
       <c r="D41">
-        <v>172</v>
+        <v>909</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -1468,7 +1465,7 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
         <v>51</v>
@@ -1477,7 +1474,7 @@
         <v>209</v>
       </c>
       <c r="E42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
@@ -1488,13 +1485,13 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
         <v>52</v>
       </c>
       <c r="D43">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -1508,16 +1505,16 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
         <v>53</v>
       </c>
       <c r="D44">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F44" t="s">
         <v>9</v>
@@ -1528,16 +1525,16 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C45" t="s">
         <v>54</v>
       </c>
       <c r="D45">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="E45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
@@ -1548,13 +1545,13 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" t="s">
         <v>55</v>
       </c>
       <c r="D46">
-        <v>909</v>
+        <v>161</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -1568,16 +1565,16 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47" t="s">
         <v>56</v>
       </c>
       <c r="D47">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F47" t="s">
         <v>9</v>
@@ -1588,13 +1585,13 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C48" t="s">
         <v>57</v>
       </c>
       <c r="D48">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -1608,13 +1605,13 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C49" t="s">
         <v>58</v>
       </c>
       <c r="D49">
-        <v>161</v>
+        <v>225</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -1628,7 +1625,7 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C50" t="s">
         <v>59</v>
@@ -1637,7 +1634,7 @@
         <v>228</v>
       </c>
       <c r="E50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F50" t="s">
         <v>9</v>
@@ -1648,16 +1645,16 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C51" t="s">
         <v>60</v>
       </c>
       <c r="D51">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
@@ -1668,16 +1665,16 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C52" t="s">
         <v>61</v>
       </c>
       <c r="D52">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="E52">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F52" t="s">
         <v>9</v>
@@ -1688,16 +1685,16 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C53" t="s">
         <v>62</v>
       </c>
       <c r="D53">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
@@ -1708,16 +1705,16 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C54" t="s">
         <v>63</v>
       </c>
       <c r="D54">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -1728,13 +1725,13 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C55" t="s">
         <v>64</v>
       </c>
       <c r="D55">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1748,13 +1745,13 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C56" t="s">
         <v>65</v>
       </c>
       <c r="D56">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1768,13 +1765,13 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C57" t="s">
         <v>66</v>
       </c>
       <c r="D57">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1788,13 +1785,13 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C58" t="s">
         <v>67</v>
       </c>
       <c r="D58">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1808,16 +1805,16 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D59">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
         <v>9</v>
@@ -1828,16 +1825,16 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C60" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D60">
-        <v>184</v>
+        <v>71</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F60" t="s">
         <v>9</v>
@@ -1848,16 +1845,16 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C61" t="s">
         <v>71</v>
       </c>
       <c r="D61">
-        <v>220</v>
+        <v>92</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" t="s">
         <v>9</v>
@@ -1868,16 +1865,16 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C62" t="s">
         <v>72</v>
       </c>
       <c r="D62">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="E62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" t="s">
         <v>9</v>
@@ -1888,13 +1885,13 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C63" t="s">
         <v>73</v>
       </c>
       <c r="D63">
-        <v>92</v>
+        <v>205</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -1908,13 +1905,13 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C64" t="s">
         <v>74</v>
       </c>
       <c r="D64">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -1928,16 +1925,16 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
         <v>75</v>
       </c>
       <c r="D65">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="E65">
-        <v>2</v>
+        <v>159463</v>
       </c>
       <c r="F65" t="s">
         <v>9</v>
@@ -1948,16 +1945,16 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C66" t="s">
         <v>76</v>
       </c>
       <c r="D66">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>12807</v>
       </c>
       <c r="F66" t="s">
         <v>9</v>
@@ -1968,16 +1965,16 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C67" t="s">
         <v>77</v>
       </c>
       <c r="D67">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="E67">
-        <v>17844</v>
+        <v>1</v>
       </c>
       <c r="F67" t="s">
         <v>9</v>
@@ -1988,7 +1985,7 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C68" t="s">
         <v>78</v>
@@ -2008,16 +2005,16 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C69" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D69">
-        <v>227</v>
+        <v>771</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69" t="s">
         <v>9</v>
@@ -2028,16 +2025,16 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C70" t="s">
         <v>81</v>
       </c>
       <c r="D70">
-        <v>771</v>
+        <v>149</v>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70" t="s">
         <v>9</v>
@@ -2048,16 +2045,16 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C71" t="s">
         <v>82</v>
       </c>
       <c r="D71">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F71" t="s">
         <v>9</v>
@@ -2068,16 +2065,16 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C72" t="s">
         <v>83</v>
       </c>
       <c r="D72">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F72" t="s">
         <v>9</v>
@@ -2088,13 +2085,13 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C73" t="s">
         <v>84</v>
       </c>
       <c r="D73">
-        <v>78</v>
+        <v>232</v>
       </c>
       <c r="E73">
         <v>2</v>
@@ -2108,7 +2105,7 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C74" t="s">
         <v>85</v>
@@ -2128,16 +2125,16 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C75" t="s">
         <v>86</v>
       </c>
       <c r="D75">
-        <v>144</v>
+        <v>188</v>
       </c>
       <c r="E75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75" t="s">
         <v>9</v>
@@ -2148,13 +2145,13 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C76" t="s">
         <v>87</v>
       </c>
       <c r="D76">
-        <v>232</v>
+        <v>144</v>
       </c>
       <c r="E76">
         <v>2</v>
@@ -2168,13 +2165,13 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C77" t="s">
         <v>88</v>
       </c>
       <c r="D77">
-        <v>188</v>
+        <v>111</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -2188,13 +2185,13 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C78" t="s">
         <v>89</v>
       </c>
       <c r="D78">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -2208,13 +2205,13 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C79" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D79">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -2228,38 +2225,18 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C80" t="s">
         <v>92</v>
       </c>
       <c r="D80">
-        <v>98</v>
+        <v>198</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F80" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" t="s">
-        <v>6</v>
-      </c>
-      <c r="B81" t="s">
-        <v>91</v>
-      </c>
-      <c r="C81" t="s">
-        <v>93</v>
-      </c>
-      <c r="D81">
-        <v>198</v>
-      </c>
-      <c r="E81">
-        <v>2</v>
-      </c>
-      <c r="F81" t="s">
         <v>9</v>
       </c>
     </row>
